--- a/images/20200101/运维生命周期.xlsx
+++ b/images/20200101/运维生命周期.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niean/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niean/blog/niean.github.io/images/20200101/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="123">
   <si>
     <t>使用频次</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>低</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>手工</t>
@@ -538,23 +535,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>运营-预案演练</t>
-    <rPh sb="3" eb="4">
-      <t>yu'an</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yan'lian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营-预案演练</t>
-    <rPh sb="5" eb="6">
-      <t>yan'lian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>理想终态</t>
     <rPh sb="0" eb="1">
       <t>li'xiang</t>
@@ -602,58 +582,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产品规范化，交付的产品或服务在功能、元数据等方面具备管理共性; 引入ISO/ITIL</t>
-    <rPh sb="0" eb="1">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gui'fan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>huo</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>fu'wu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>go'neg</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yuan'shu'ju</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>fang'mian</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ju'bei</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>guan'li</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>gong'xing</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>yin'ru</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>网络</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -714,10 +642,6 @@
   </si>
   <si>
     <t>平台化-ToM</t>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>流程</t>
@@ -847,46 +771,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>运维和大数据技术结合，实现运营场景的数字化，更进一步则产出运维大数据平台</t>
-    <rPh sb="2" eb="3">
-      <t>he</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jie'he</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi'xian</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>chang'jing</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>de</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>gegn'jin'yi'bu</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ze</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>chan'chu</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>yun'wei</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>da'shu'ju</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ping'tai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>平台化-ToC本质是Devops视角，之后的运维发展裂变为集中管理、RD自助两个视角</t>
     <rPh sb="7" eb="8">
       <t>ben'zhi</t>
@@ -1095,6 +979,253 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ge'xin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作方式</t>
+    <rPh sb="0" eb="1">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <rPh sb="0" eb="1">
+      <t>ping'tai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字化</t>
+  </si>
+  <si>
+    <t>运营方式</t>
+    <rPh sb="0" eb="1">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失</t>
+    <rPh sb="0" eb="1">
+      <t>que'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>纯手工</t>
+    <rPh sb="0" eb="1">
+      <t>chun'shou'gong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数智化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失，完全依赖个人经验</t>
+    <rPh sb="0" eb="1">
+      <t>que'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan'quan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi'lai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ge'ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jing'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作流程</t>
+    <rPh sb="0" eb="1">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档化SOP</t>
+    <rPh sb="0" eb="1">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失，依赖个人经验</t>
+    <rPh sb="0" eb="1">
+      <t>que'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'lai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ge'ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题：当前阶段划分，遵循了多个维度、比较混乱</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'duan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hua'fen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zun'xun'le</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>duo'ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei'du</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hun'luan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规范化，交付的资源或服务在功能、元数据等方面具备管理共性; 引入ISO/ITIL</t>
+    <rPh sb="0" eb="1">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gui'fan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>go'neg</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yuan'shu'ju</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>fang'mian</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ju'bei</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>gong'xing</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>yin'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维和数据技术结合，实现运营场景的数字化，更进一步则产出运维大数据平台</t>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>gegn'jin'yi'bu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>chan'chu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yun'wei</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ping'tai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营-预案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营-预案</t>
+    <rPh sb="3" eb="4">
+      <t>yu'an</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1103,7 +1234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1179,8 +1310,16 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1202,12 +1341,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,8 +1406,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1349,9 +1490,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1361,21 +1515,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="73">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1409,6 +1550,10 @@
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1441,6 +1586,10 @@
     <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1715,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1732,172 +1881,276 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="14"/>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="D5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="14"/>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="15"/>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="E11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="17"/>
-      <c r="C4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="C6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
-      <c r="C9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="17"/>
-      <c r="C12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>106</v>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1916,81 +2169,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" customWidth="1"/>
     <col min="13" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="42.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="A1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="M1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
@@ -1999,26 +2247,26 @@
         <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="P2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>2</v>
@@ -2027,13 +2275,13 @@
         <v>3</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>0</v>
@@ -2044,269 +2292,265 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
         <v>48</v>
       </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="6"/>
+        <v>42</v>
+      </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" t="s">
-        <v>97</v>
-      </c>
-      <c r="R4" t="s">
-        <v>49</v>
-      </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="6"/>
+        <v>48</v>
+      </c>
       <c r="M5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="R5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="V5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="6"/>
+        <v>48</v>
+      </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -2317,131 +2561,129 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="6"/>
+        <v>40</v>
+      </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T7" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="U7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V7" t="s">
         <v>7</v>
       </c>
       <c r="W7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="6"/>
+        <v>40</v>
+      </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R8" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="S8" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T8" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="U8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -2449,65 +2691,64 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="6"/>
+        <v>40</v>
+      </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T9" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="U9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -2515,65 +2756,65 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="L10" s="12"/>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R10" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T10" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="U10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -2581,65 +2822,64 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="6"/>
+        <v>40</v>
+      </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S11" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T11" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="U11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -2647,62 +2887,61 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="6"/>
+        <v>40</v>
+      </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V12" t="s">
         <v>7</v>
@@ -2713,62 +2952,61 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
         <v>48</v>
       </c>
-      <c r="H13" t="s">
-        <v>49</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="6"/>
+        <v>40</v>
+      </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V13" t="s">
         <v>7</v>
@@ -2779,65 +3017,65 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" t="s">
         <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14" t="s">
-        <v>97</v>
-      </c>
-      <c r="S14" t="s">
-        <v>91</v>
-      </c>
-      <c r="T14" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -2845,65 +3083,65 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="L15" s="12"/>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S15" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -2911,65 +3149,65 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" t="s">
+        <v>111</v>
+      </c>
+      <c r="T16" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" t="s">
         <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" t="s">
-        <v>97</v>
-      </c>
-      <c r="S16" t="s">
-        <v>91</v>
-      </c>
-      <c r="T16" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -2977,62 +3215,62 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="L17" s="12"/>
       <c r="M17" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T17" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="U17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V17" t="s">
         <v>7</v>
@@ -3043,131 +3281,130 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="L18" s="12"/>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S18" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K19" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="6"/>
+        <v>48</v>
+      </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -3175,194 +3412,193 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" t="s">
+        <v>111</v>
+      </c>
+      <c r="N20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" t="s">
         <v>92</v>
       </c>
-      <c r="E20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" t="s">
-        <v>9</v>
-      </c>
-      <c r="O20" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20" t="s">
-        <v>97</v>
-      </c>
       <c r="S20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" t="s">
-        <v>91</v>
-      </c>
-      <c r="N21" t="s">
-        <v>9</v>
-      </c>
-      <c r="O21" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>9</v>
-      </c>
-      <c r="R21" t="s">
-        <v>97</v>
-      </c>
       <c r="S21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" t="s">
-        <v>91</v>
-      </c>
-      <c r="N22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>9</v>
-      </c>
-      <c r="R22" t="s">
-        <v>97</v>
-      </c>
       <c r="S22" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V22" t="s">
         <v>7</v>
@@ -3370,197 +3606,197 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" t="s">
+        <v>111</v>
+      </c>
+      <c r="N23" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" t="s">
-        <v>16</v>
-      </c>
-      <c r="P23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>9</v>
-      </c>
-      <c r="R23" t="s">
-        <v>97</v>
-      </c>
       <c r="S23" s="4" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="T23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" t="s">
+        <v>111</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" t="s">
-        <v>9</v>
-      </c>
-      <c r="O24" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" t="s">
-        <v>97</v>
-      </c>
       <c r="S24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="L25" s="12"/>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="T25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V25" t="s">
         <v>7</v>
@@ -3568,410 +3804,405 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="L26" s="12"/>
       <c r="M26" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R26" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="S26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T26" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="U26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>91</v>
-      </c>
-      <c r="L27" s="6"/>
+        <v>111</v>
+      </c>
       <c r="M27" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N27" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R27" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="S27" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U27" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="V27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="6"/>
+        <v>111</v>
+      </c>
       <c r="M28" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S28" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V28" t="s">
         <v>7</v>
       </c>
       <c r="W28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I29" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s">
-        <v>91</v>
-      </c>
-      <c r="L29" s="6"/>
+        <v>111</v>
+      </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S29" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
         <v>83</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s">
-        <v>91</v>
-      </c>
-      <c r="L30" s="6"/>
+        <v>111</v>
+      </c>
       <c r="M30" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S30" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V30" t="s">
         <v>7</v>
       </c>
       <c r="W30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" s="6"/>
+        <v>111</v>
+      </c>
       <c r="M31" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S31" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="T31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V31" t="s">
         <v>7</v>
       </c>
       <c r="W31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/images/20200101/运维生命周期.xlsx
+++ b/images/20200101/运维生命周期.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
-    <sheet name="资源生命周期" sheetId="1" r:id="rId2"/>
+    <sheet name="运维发展史" sheetId="3" r:id="rId2"/>
+    <sheet name="资源生命周期" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="R4" authorId="0">
+    <comment ref="R6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="128">
   <si>
     <t>使用频次</t>
   </si>
@@ -61,15 +62,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>运营-变更</t>
-  </si>
-  <si>
-    <t>运营-监控</t>
-  </si>
-  <si>
-    <t>运营-成本</t>
-  </si>
-  <si>
     <t>网络</t>
   </si>
   <si>
@@ -157,16 +149,6 @@
     <t>产品</t>
     <rPh sb="0" eb="1">
       <t>chan'pin</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源对象</t>
-    <rPh sb="0" eb="1">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dui'xiang</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -282,149 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>原始阶段，运维尚未有纳管，或运维单兵作战、无沉淀</t>
-    <rPh sb="0" eb="1">
-      <t>yuan'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'duan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yun'wei</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shang'wei</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>you'xiao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>na'guan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>huo</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yun'wei</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>wu'chen'dian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP文档化，操作经验可复制</t>
-    <rPh sb="7" eb="8">
-      <t>cao'zuo</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jing'yan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ke'fu'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求流程化，制定了邮件或工单流程，约束需求方、资源提供方的协作步骤</t>
-    <rPh sb="0" eb="1">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>liu'cheng'hua</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhi'ding'le</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>you'jian</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>huo</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>gong'dan</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>liu'cheng</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yue'shu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>xu'qiu'fang</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ti'gong</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>de</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>xie'zuo</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>bu'zhou</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维管理平台化，但平台缺少必要约束、只能对资深人士开放</t>
-    <rPh sb="0" eb="1">
-      <t>yun'wei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guan'li</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ping'tai'hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ping'tai</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>que'shao</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>bi'yao</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yue'shu</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>zhi'dui</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>neng</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>dui</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>zi'shen</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ren'shi</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>kai'fang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <rPh sb="0" eb="1">
-      <t>bei'zhu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>控制面实现面向终态，基于经验策略，能够定期检查+自动修复</t>
     <rPh sb="0" eb="1">
       <t>kong'zhi'mian</t>
@@ -461,13 +300,6 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>xiu'fu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特点</t>
-    <rPh sb="0" eb="1">
-      <t>te'dian</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -509,10 +341,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>下线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>运维准入</t>
     <rPh sb="0" eb="1">
       <t>yun'wei</t>
@@ -528,20 +356,6 @@
   </si>
   <si>
     <t>产品调研</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理想终态</t>
-    <rPh sb="0" eb="1">
-      <t>li'xiang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhong'tai</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -683,40 +497,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>运维操作脚本化，通常只允许运维人员执行，命令行触发、硬编排</t>
-    <rPh sb="0" eb="1">
-      <t>yun'wei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cao'zuo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jiao'ben'hua</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhi'you</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yun'xu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>yun'wie</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ren'yuan</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zhi'xing</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ying</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>bian'pai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>中</t>
     <rPh sb="0" eb="1">
       <t>zhong</t>
@@ -727,19 +507,6 @@
     <t>低</t>
     <rPh sb="0" eb="1">
       <t>di</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如约定服务提供商CSP</t>
-    <rPh sb="0" eb="1">
-      <t>ru</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yue'ding</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fu'wu'ti'gong'shang</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -771,218 +538,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>平台化-ToC本质是Devops视角，之后的运维发展裂变为集中管理、RD自助两个视角</t>
-    <rPh sb="7" eb="8">
-      <t>ben'zhi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shi'jiao</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>zhi'hou</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>de</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>yun'wei</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>fa'zhan</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>lie'bian'wei</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ji'zhong</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>guan'li'zhe</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>zi'zhu</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>liang'ge</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>shi'jiao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台化-ToM是运维管理能力的分水岭，其继承了标准化，达到了ROI的最高峰，之后开始递减</t>
-    <rPh sb="7" eb="8">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>de</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>qi</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ji'cheng</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>le</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>biao'zhun'hua</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>da'dao</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>le</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>de</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>zui'gao'feng</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>zhi'hou</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>kai'shi</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>di'jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继承性: 新阶段往往继承、发扬老阶段的优秀经验，又会在理念、技术、组织上有所创新</t>
-    <rPh sb="0" eb="1">
-      <t>ji'cheng'xing</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jie'duan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wang'wang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ji'chegn</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fa'yang</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>lao'jie'duan</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>de</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>you'xiu</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>jing'yan</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>you'hui</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>li'nian</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>zu'zhi'shang</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>you'suo</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>chuang'xin</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维工作自助化，平台常用功能具备了必要约束和易用性，可以对普通RD开放</t>
-    <rPh sb="0" eb="1">
-      <t>yun'we</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gong'zuo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zi'zhu'hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ping'tai'hua</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>chang'yong</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>go'neng</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ju'bei'le</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>bi'yao</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>yue'shu</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>he</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>yi'yong'xing</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>dui</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>pu'tong</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>kai'fang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Devops理念和组织方式的革新</t>
-    <rPh sb="6" eb="7">
-      <t>li'nian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>he</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zu'zhi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>fang'shi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ge'xin</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作方式</t>
     <rPh sb="0" eb="1">
       <t>cao'zuo</t>
@@ -1219,13 +774,374 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>运营-预案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营-预案</t>
-    <rPh sb="3" eb="4">
-      <t>yu'an</t>
+    <t>交付</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监-监控</t>
+    <rPh sb="0" eb="1">
+      <t>jian'kong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <rPh sb="0" eb="1">
+      <t>yun'ying</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管-变更等</t>
+    <rPh sb="0" eb="1">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控-容量预案等</t>
+    <rPh sb="0" eb="1">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rong'linag</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>析-成本等</t>
+    <rPh sb="4" eb="5">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收</t>
+    <rPh sb="0" eb="1">
+      <t>hui'shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准入</t>
+    <rPh sb="0" eb="1">
+      <t>zhun'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下线销毁</t>
+    <rPh sb="2" eb="3">
+      <t>xiao'hui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前阶段</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终目标</t>
+    <rPh sb="0" eb="1">
+      <t>zui'zhong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维单兵作战、无沉淀，尚未形成集中纳管</t>
+    <rPh sb="7" eb="8">
+      <t>wu'chen'dian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang'wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xing'cheng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji'zhong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>na'guan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000，信息系统规模扩大，业务增速超过运维人员增速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作文档化，操作经验形成SOP、通过文档传播</t>
+    <rPh sb="0" eb="1">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing'yan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing'cheng</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>chuan'bo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作脚本化，通常只允许运维人员执行，命令行触发、硬编排</t>
+    <rPh sb="0" eb="1">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'ben'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi'you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yun'xu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yun'wie</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ren'yuan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>bian'pai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理平台化，但平台缺少必要约束、只能对资深人士开放</t>
+    <rPh sb="0" eb="1">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'tai'hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ping'tai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que'shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi'yao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yue'shu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi'dui</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zi'shen</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ren'shi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kai'fang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作自助化，平台功能具备了必要约束和易用性，可以对普通RD开放</t>
+    <rPh sb="0" eb="1">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'zhu'hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ping'tai'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>go'neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ju'bei'le</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bi'yao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yue'shu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>he</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yi'yong'xing</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>pu'tong</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>kai'fang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008，服务架构多元化、运维方式异构，国内百度最早尝试平台化、自动化</t>
+    <rPh sb="24" eb="25">
+      <t>zui'zao</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>chang'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010-2014年，DevOps理念在亚马逊、谷歌落地，理念和组织方式的革新</t>
+    <rPh sb="29" eb="30">
+      <t>li'nian</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>he</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zu'zhi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>de</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ge'xin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据化</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014，运维领域已经积累了大量数据经验，大数据、AI技术兴起，百度开始尝试AIOps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1990，信息化企业发展初期</t>
+    <rPh sb="8" eb="9">
+      <t>qi'ye</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承性：运维是一门实践学科，其发展历史呈现了强烈的继承性。新阶段往往继承、发扬老阶段的优秀经验，又会在理念、技术、组织上有所创新；文档化、标准化、流程化、脚本化、平台化、数据化、决策自动化、AI智能化，这些都是运维一路发展过来的优秀成果。</t>
+  </si>
+  <si>
+    <t>DevOps：DevOps是运维管理模式的分水岭。DevOps之后，运维一方面沿着专业化方向继续推进，包括更完善的平台化-ToM、自动化、数据化、智能化；另一方面则强调运维职责分散到RD、代表作是平台化-ToC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROI：平台化-ToM是运维ROI的最高峰，无论是专业方向、还是DevOps方面，平台化-ToM之后ROI都在递减 </t>
+  </si>
+  <si>
+    <t>产生环境</t>
+    <rPh sb="0" eb="1">
+      <t>chan'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huan'jing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求流程化，制定了工单流程，约束需求方、能力提供方的协作步骤; 手工执行</t>
+    <rPh sb="0" eb="1">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng'hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi'ding'le</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong'dan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yue'shu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xu'qiu'fang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>neng'li</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xie'zuo</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bu'zhou</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>shou'gon</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhi'xing</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1319,7 +1235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1334,13 +1250,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,7 +1340,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1480,8 +1414,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1492,11 +1434,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1506,17 +1449,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="81">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1554,6 +1520,10 @@
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1590,6 +1560,10 @@
     <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1599,6 +1573,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>251894</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13459894" cy="6515100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1864,10 +1881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F30"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1875,290 +1892,298 @@
     <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.5" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="16"/>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="C7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="16"/>
+      <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="16"/>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="14"/>
-      <c r="C4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="7" t="s">
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
-      <c r="C8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
         <v>40</v>
-      </c>
-      <c r="E26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
         <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="10" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
+  <mergeCells count="6">
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2166,18 +2191,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" customWidth="1"/>
@@ -2191,2025 +2233,2063 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="3" t="s">
+      <c r="C1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="M1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" t="s">
-        <v>111</v>
-      </c>
-      <c r="T4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>111</v>
-      </c>
-      <c r="R5" t="s">
-        <v>111</v>
-      </c>
-      <c r="S5" t="s">
-        <v>111</v>
-      </c>
-      <c r="T5" t="s">
-        <v>36</v>
-      </c>
       <c r="U5" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>94</v>
+        <v>10</v>
+      </c>
+      <c r="W5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>111</v>
-      </c>
-      <c r="N6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" t="s">
-        <v>111</v>
-      </c>
-      <c r="T6" t="s">
-        <v>44</v>
-      </c>
       <c r="U6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" t="s">
-        <v>111</v>
-      </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="T7" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="U7" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="V7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>111</v>
-      </c>
-      <c r="N8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8" t="s">
-        <v>111</v>
-      </c>
-      <c r="S8" t="s">
-        <v>111</v>
-      </c>
-      <c r="T8" t="s">
-        <v>111</v>
-      </c>
       <c r="U8" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="S9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="T9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="U9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V9" t="s">
-        <v>95</v>
+        <v>4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
       <c r="M10" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="R10" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="S10" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="T10" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="U10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>5</v>
       </c>
       <c r="R11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="T11" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="U11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V11" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>86</v>
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" t="s">
-        <v>40</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="11"/>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S12" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="T12" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="U12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>86</v>
+        <v>44</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="R13" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="T13" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="U13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V13" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" t="s">
-        <v>111</v>
+        <v>12</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
       <c r="M14" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R14" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="T14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
-        <v>111</v>
+        <v>43</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
       <c r="M15" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R15" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V15" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s">
+        <v>91</v>
+      </c>
+      <c r="T16" t="s">
+        <v>5</v>
+      </c>
+      <c r="U16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V16" t="s">
         <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" t="s">
-        <v>111</v>
-      </c>
-      <c r="N16" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>8</v>
-      </c>
-      <c r="R16" t="s">
-        <v>92</v>
-      </c>
-      <c r="S16" t="s">
-        <v>111</v>
-      </c>
-      <c r="T16" t="s">
-        <v>8</v>
-      </c>
-      <c r="U16" t="s">
-        <v>8</v>
-      </c>
-      <c r="V16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>86</v>
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="L17" s="11"/>
       <c r="M17" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="T17" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="U17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>85</v>
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="L18" s="11"/>
       <c r="M18" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s">
+        <v>79</v>
+      </c>
+      <c r="S18" t="s">
+        <v>91</v>
+      </c>
+      <c r="T18" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" t="s">
         <v>8</v>
-      </c>
-      <c r="O18" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>8</v>
-      </c>
-      <c r="R18" t="s">
-        <v>92</v>
-      </c>
-      <c r="S18" t="s">
-        <v>111</v>
-      </c>
-      <c r="T18" t="s">
-        <v>8</v>
-      </c>
-      <c r="U18" t="s">
-        <v>8</v>
-      </c>
-      <c r="V18" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
+        <v>91</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" t="s">
-        <v>111</v>
+        <v>44</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" t="s">
-        <v>48</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="11"/>
       <c r="M19" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P19" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="R19" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="U19" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="V19" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" t="s">
-        <v>111</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="11"/>
       <c r="M20" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="T20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>111</v>
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" t="s">
-        <v>111</v>
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="12"/>
       <c r="M21" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P21" t="s">
         <v>15</v>
       </c>
       <c r="Q21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R21" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" t="s">
         <v>15</v>
       </c>
-      <c r="T21" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" t="s">
-        <v>8</v>
-      </c>
       <c r="V21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>111</v>
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="K22" t="s">
+        <v>91</v>
+      </c>
       <c r="M22" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R22" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>85</v>
+        <v>44</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="L23" s="11"/>
       <c r="M23" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R23" t="s">
-        <v>92</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
+      </c>
+      <c r="S23" t="s">
+        <v>12</v>
       </c>
       <c r="T23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>91</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="L24" s="11"/>
       <c r="M24" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P24" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R24" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="T24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V24" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" t="s">
-        <v>87</v>
+        <v>44</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="L25" s="11"/>
       <c r="M25" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s">
+        <v>79</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U25" t="s">
+        <v>5</v>
+      </c>
+      <c r="V25" t="s">
         <v>8</v>
-      </c>
-      <c r="O25" t="s">
-        <v>15</v>
-      </c>
-      <c r="P25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>8</v>
-      </c>
-      <c r="R25" t="s">
-        <v>8</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="T25" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" t="s">
-        <v>111</v>
+        <v>72</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="J26" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L26" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="L26" s="11"/>
       <c r="M26" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R26" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T26" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="U26" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="V26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" t="s">
-        <v>111</v>
+        <v>74</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" t="s">
-        <v>111</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="11"/>
       <c r="M27" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N27" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="O27" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="P27" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="R27" t="s">
-        <v>111</v>
-      </c>
-      <c r="S27" t="s">
-        <v>111</v>
+        <v>5</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="T27" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="U27" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="V27" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s">
+        <v>91</v>
+      </c>
+      <c r="S28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T28" t="s">
+        <v>91</v>
+      </c>
+      <c r="U28" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" t="s">
-        <v>111</v>
-      </c>
-      <c r="M28" t="s">
-        <v>111</v>
-      </c>
-      <c r="N28" t="s">
-        <v>8</v>
-      </c>
-      <c r="O28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P28" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>8</v>
-      </c>
-      <c r="R28" t="s">
-        <v>8</v>
-      </c>
-      <c r="S28" t="s">
-        <v>111</v>
-      </c>
-      <c r="T28" t="s">
-        <v>8</v>
-      </c>
-      <c r="U28" t="s">
-        <v>8</v>
-      </c>
       <c r="V28" t="s">
-        <v>7</v>
-      </c>
-      <c r="W28" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>91</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="M29" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>76</v>
+      </c>
+      <c r="R29" t="s">
+        <v>91</v>
+      </c>
+      <c r="S29" t="s">
+        <v>91</v>
+      </c>
+      <c r="T29" t="s">
+        <v>43</v>
+      </c>
+      <c r="U29" t="s">
+        <v>91</v>
+      </c>
+      <c r="V29" t="s">
         <v>8</v>
-      </c>
-      <c r="O29" t="s">
-        <v>15</v>
-      </c>
-      <c r="P29" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" t="s">
-        <v>111</v>
-      </c>
-      <c r="T29" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" t="s">
-        <v>11</v>
-      </c>
-      <c r="W29" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="s">
-        <v>111</v>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="M30" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S30" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="T30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" t="s">
-        <v>111</v>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="M31" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="N31" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P31" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="s">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s">
+        <v>91</v>
+      </c>
+      <c r="T31" t="s">
+        <v>5</v>
+      </c>
+      <c r="U31" t="s">
+        <v>5</v>
+      </c>
+      <c r="V31" t="s">
         <v>8</v>
       </c>
-      <c r="R31" t="s">
-        <v>8</v>
-      </c>
-      <c r="S31" t="s">
-        <v>111</v>
-      </c>
-      <c r="T31" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" t="s">
-        <v>7</v>
-      </c>
       <c r="W31" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s">
+        <v>91</v>
+      </c>
+      <c r="T32" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s">
+        <v>91</v>
+      </c>
+      <c r="M33" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s">
+        <v>91</v>
+      </c>
+      <c r="T33" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C1:K1"/>
     <mergeCell ref="M1:U1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:T3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/images/20200101/运维生命周期.xlsx
+++ b/images/20200101/运维生命周期.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
     <sheet name="运维发展史" sheetId="3" r:id="rId2"/>
     <sheet name="资源生命周期" sheetId="1" r:id="rId3"/>
+    <sheet name="运营" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="154">
   <si>
     <t>使用频次</t>
   </si>
@@ -1143,6 +1144,221 @@
     <rPh sb="34" eb="35">
       <t>zhi'xing</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监</t>
+    <rPh sb="0" eb="1">
+      <t>jian'kog</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管</t>
+    <rPh sb="0" eb="1">
+      <t>guan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控</t>
+    <rPh sb="0" eb="1">
+      <t>kong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更</t>
+    <rPh sb="0" eb="1">
+      <t>bian'geng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化治理</t>
+    <rPh sb="0" eb="1">
+      <t>biao'zhun'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警处理</t>
+    <rPh sb="0" eb="1">
+      <t>bao'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题排查</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pai'cha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲率</t>
+    <rPh sb="0" eb="1">
+      <t>kong'xian'lv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付质量</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本运营</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun'ying</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动销毁</t>
+    <rPh sb="0" eb="1">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'hui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKU控制</t>
+    <rPh sb="3" eb="4">
+      <t>kong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容量度量</t>
+    <rPh sb="0" eb="1">
+      <t>rong'liang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>du'liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量度量</t>
+    <rPh sb="0" eb="1">
+      <t>yong'liang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>du'liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本度量</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'be</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>du'liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩缩容</t>
+    <rPh sb="0" eb="1">
+      <t>kuo'suo'rog</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预案自动化</t>
+    <rPh sb="0" eb="1">
+      <t>yu'an</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'dong'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码管理</t>
+    <rPh sb="0" eb="1">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ding</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'lv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <rPh sb="0" eb="1">
+      <t>an'quan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控巡检</t>
+    <rPh sb="0" eb="1">
+      <t>jian'kong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xun'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预案演练</t>
+    <rPh sb="0" eb="1">
+      <t>yu'an</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'lian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QoS/ACL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1423,7 +1639,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1441,12 +1657,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1461,26 +1697,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1915,31 +2132,31 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="19" t="s">
         <v>113</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1947,79 +2164,79 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="16"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>118</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="15" t="s">
         <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -2027,16 +2244,16 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -2044,14 +2261,14 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
@@ -2060,7 +2277,7 @@
       <c r="B15" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -2194,7 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -2211,7 +2428,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2233,64 +2450,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="M1" s="20" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="13" t="s">
         <v>107</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
       <c r="U3" s="13" t="s">
         <v>107</v>
       </c>
@@ -4295,4 +4512,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/images/20200101/运维生命周期.xlsx
+++ b/images/20200101/运维生命周期.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
@@ -1667,6 +1667,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1697,7 +1698,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2100,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2147,7 +2147,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2156,7 +2156,7 @@
       <c r="D4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>113</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2164,31 +2164,31 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2197,39 +2197,39 @@
       <c r="D7" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>118</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
@@ -2244,7 +2244,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2253,7 +2253,7 @@
       <c r="D11" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -2261,14 +2261,14 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
@@ -2450,64 +2450,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="M1" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="27" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="13" t="s">
         <v>107</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
       <c r="U3" s="13" t="s">
         <v>107</v>
       </c>
@@ -4518,7 +4518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -4531,16 +4531,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="19" t="s">
         <v>131</v>
       </c>
     </row>

--- a/images/20200101/运维生命周期.xlsx
+++ b/images/20200101/运维生命周期.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
     <sheet name="运维发展史" sheetId="3" r:id="rId2"/>
     <sheet name="资源生命周期" sheetId="1" r:id="rId3"/>
-    <sheet name="运营" sheetId="4" r:id="rId4"/>
+    <sheet name="应用生命周期" sheetId="5" r:id="rId4"/>
+    <sheet name="运营" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="238">
   <si>
     <t>使用频次</t>
   </si>
@@ -427,13 +428,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>其它</t>
-    <rPh sb="0" eb="1">
-      <t>qi'ta</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>费用</t>
     <rPh sb="0" eb="1">
       <t>fei'yong</t>
@@ -1154,20 +1148,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>管</t>
-    <rPh sb="0" eb="1">
-      <t>guan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控</t>
-    <rPh sb="0" eb="1">
-      <t>kong'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>析</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1360,13 +1340,297 @@
   <si>
     <t>QoS/ACL</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管(OP亲自操作)</t>
+    <rPh sb="0" eb="1">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qin'zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cao'zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控(OP控制其它人操作)</t>
+    <rPh sb="0" eb="1">
+      <t>kong'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kong'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ren'cao'zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向/阶段</t>
+  </si>
+  <si>
+    <t>准入</t>
+  </si>
+  <si>
+    <t>交付</t>
+  </si>
+  <si>
+    <t>监</t>
+  </si>
+  <si>
+    <t>管(操作和维护)</t>
+  </si>
+  <si>
+    <t>控(流程和自动化)</t>
+  </si>
+  <si>
+    <t>析</t>
+  </si>
+  <si>
+    <t>服(ToC化)</t>
+  </si>
+  <si>
+    <t>下线</t>
+  </si>
+  <si>
+    <t>稳定</t>
+  </si>
+  <si>
+    <t>规范标准</t>
+  </si>
+  <si>
+    <t>监控巡检</t>
+  </si>
+  <si>
+    <t>应急处理</t>
+  </si>
+  <si>
+    <t>故障管理</t>
+  </si>
+  <si>
+    <t>部署架构</t>
+  </si>
+  <si>
+    <t>报警处理</t>
+  </si>
+  <si>
+    <t>变更管理</t>
+  </si>
+  <si>
+    <t>统一军规</t>
+  </si>
+  <si>
+    <t>报警分析</t>
+  </si>
+  <si>
+    <t>问题排查</t>
+  </si>
+  <si>
+    <t>预案管理</t>
+  </si>
+  <si>
+    <t>容灾切换, 故障自愈</t>
+  </si>
+  <si>
+    <t>变更度量</t>
+  </si>
+  <si>
+    <t>容量管理</t>
+  </si>
+  <si>
+    <t>弹性伸缩</t>
+  </si>
+  <si>
+    <t>预案度量</t>
+  </si>
+  <si>
+    <t>全局感知</t>
+  </si>
+  <si>
+    <t>流量管理(调度,限流)</t>
+  </si>
+  <si>
+    <t>容量度量</t>
+  </si>
+  <si>
+    <t>应用监控</t>
+  </si>
+  <si>
+    <t>架构管理(高可用等)</t>
+  </si>
+  <si>
+    <t>架构度量</t>
+  </si>
+  <si>
+    <t>故障演练(压测,注入)</t>
+  </si>
+  <si>
+    <t>应用度量</t>
+  </si>
+  <si>
+    <t>审批操作</t>
+  </si>
+  <si>
+    <t>审批自动化</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>NS命名</t>
+  </si>
+  <si>
+    <t>需求沟通</t>
+  </si>
+  <si>
+    <t>知识咨询</t>
+  </si>
+  <si>
+    <t>智能答疑</t>
+  </si>
+  <si>
+    <t>工单度量</t>
+  </si>
+  <si>
+    <t>服务目录</t>
+  </si>
+  <si>
+    <t>下线模块</t>
+  </si>
+  <si>
+    <t>APP命名</t>
+  </si>
+  <si>
+    <t>模块新建</t>
+  </si>
+  <si>
+    <t>模块迁移</t>
+  </si>
+  <si>
+    <t>应用质量</t>
+  </si>
+  <si>
+    <t>用户自助</t>
+  </si>
+  <si>
+    <t>下线机器</t>
+  </si>
+  <si>
+    <t>编排设计</t>
+  </si>
+  <si>
+    <t>域名解析</t>
+  </si>
+  <si>
+    <t>域名迁移</t>
+  </si>
+  <si>
+    <t>库存统计</t>
+  </si>
+  <si>
+    <t>下线域名</t>
+  </si>
+  <si>
+    <t>路由配置</t>
+  </si>
+  <si>
+    <t>机器迁移</t>
+  </si>
+  <si>
+    <t>下线路由</t>
+  </si>
+  <si>
+    <t>服务发现</t>
+  </si>
+  <si>
+    <t>下线LB</t>
+  </si>
+  <si>
+    <t>PaaS申请</t>
+  </si>
+  <si>
+    <t>CICD</t>
+  </si>
+  <si>
+    <t>管理员操作</t>
+  </si>
+  <si>
+    <t>操作自动化</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>IaaS选型</t>
+  </si>
+  <si>
+    <t>闲置监控</t>
+  </si>
+  <si>
+    <t>预算管理</t>
+  </si>
+  <si>
+    <t>成本度量</t>
+  </si>
+  <si>
+    <t>Pod规格</t>
+  </si>
+  <si>
+    <t>财务对账</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>网段选型</t>
+  </si>
+  <si>
+    <t>账号权限</t>
+  </si>
+  <si>
+    <t>漏洞扫描</t>
+  </si>
+  <si>
+    <t>漏洞升级</t>
+  </si>
+  <si>
+    <t>安全域</t>
+  </si>
+  <si>
+    <t>安全月报</t>
+  </si>
+  <si>
+    <t>通信协议</t>
+  </si>
+  <si>
+    <t>Waf运营</t>
+  </si>
+  <si>
+    <t>事件处置</t>
+  </si>
+  <si>
+    <t>流量ACL&amp;QoS</t>
+  </si>
+  <si>
+    <t>数据安全</t>
+  </si>
+  <si>
+    <t>加密存储</t>
+  </si>
+  <si>
+    <t>代码扫描</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1450,8 +1714,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFAEAAAA"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1492,6 +1788,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1556,7 +1858,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1638,8 +1940,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1668,6 +1976,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1698,8 +2014,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="87">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1741,6 +2061,9 @@
     <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1781,6 +2104,9 @@
     <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2100,7 +2426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2125,10 +2451,10 @@
         <v>33</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
@@ -2139,159 +2465,159 @@
         <v>32</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="20" t="s">
         <v>113</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="24"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="E5" s="25"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="25"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="22"/>
+        <v>126</v>
+      </c>
+      <c r="E6" s="26"/>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="25"/>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="24"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="25"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>120</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="25"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -2299,50 +2625,50 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
         <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
         <v>96</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -2350,7 +2676,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
@@ -2364,7 +2690,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
@@ -2390,7 +2716,7 @@
         <v>34</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2754,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2450,66 +2776,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C1" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="M1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="M1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+        <v>100</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
       <c r="K3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
       <c r="P3" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
+        <v>100</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
       <c r="U3" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -2534,19 +2860,19 @@
         <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="3" t="s">
@@ -2562,19 +2888,19 @@
         <v>50</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>0</v>
@@ -2609,7 +2935,7 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s">
         <v>40</v>
@@ -2630,13 +2956,13 @@
         <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s">
         <v>44</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T5" t="s">
         <v>40</v>
@@ -2677,7 +3003,7 @@
         <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
         <v>40</v>
@@ -2698,13 +3024,13 @@
         <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s">
         <v>44</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T6" t="s">
         <v>40</v>
@@ -2724,7 +3050,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
@@ -2742,7 +3068,7 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
         <v>40</v>
@@ -2751,7 +3077,7 @@
         <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
         <v>5</v>
@@ -2763,22 +3089,22 @@
         <v>5</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T7" t="s">
         <v>32</v>
       </c>
       <c r="U7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -2789,7 +3115,7 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
@@ -2807,7 +3133,7 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
@@ -2816,7 +3142,7 @@
         <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
         <v>5</v>
@@ -2828,13 +3154,13 @@
         <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s">
         <v>44</v>
       </c>
       <c r="S8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T8" t="s">
         <v>40</v>
@@ -2843,7 +3169,7 @@
         <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -2854,34 +3180,34 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
         <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N9" t="s">
         <v>5</v>
@@ -2896,13 +3222,13 @@
         <v>5</v>
       </c>
       <c r="R9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U9" t="s">
         <v>5</v>
@@ -2922,34 +3248,34 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
         <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s">
         <v>5</v>
@@ -2964,13 +3290,13 @@
         <v>5</v>
       </c>
       <c r="R10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U10" t="s">
         <v>5</v>
@@ -2987,34 +3313,34 @@
         <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
         <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
         <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s">
         <v>5</v>
@@ -3029,19 +3355,19 @@
         <v>5</v>
       </c>
       <c r="R11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U11" t="s">
         <v>5</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -3052,35 +3378,35 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
         <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
         <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s">
         <v>5</v>
@@ -3095,13 +3421,13 @@
         <v>12</v>
       </c>
       <c r="R12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U12" t="s">
         <v>5</v>
@@ -3118,13 +3444,13 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -3136,16 +3462,16 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
         <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N13" t="s">
         <v>5</v>
@@ -3160,19 +3486,19 @@
         <v>5</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U13" t="s">
         <v>5</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -3201,10 +3527,10 @@
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -3225,7 +3551,7 @@
         <v>5</v>
       </c>
       <c r="R14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s">
         <v>43</v>
@@ -3248,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -3266,16 +3592,16 @@
         <v>43</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s">
         <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N15" t="s">
         <v>5</v>
@@ -3290,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="R15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s">
         <v>5</v>
@@ -3313,35 +3639,35 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
         <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N16" t="s">
         <v>5</v>
@@ -3356,10 +3682,10 @@
         <v>5</v>
       </c>
       <c r="R16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T16" t="s">
         <v>5</v>
@@ -3379,13 +3705,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
@@ -3397,17 +3723,17 @@
         <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N17" t="s">
         <v>5</v>
@@ -3422,10 +3748,10 @@
         <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T17" t="s">
         <v>5</v>
@@ -3445,13 +3771,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
         <v>43</v>
@@ -3463,17 +3789,17 @@
         <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N18" t="s">
         <v>5</v>
@@ -3488,10 +3814,10 @@
         <v>5</v>
       </c>
       <c r="R18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T18" t="s">
         <v>5</v>
@@ -3511,13 +3837,13 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>12</v>
@@ -3529,17 +3855,17 @@
         <v>12</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N19" t="s">
         <v>5</v>
@@ -3554,13 +3880,13 @@
         <v>5</v>
       </c>
       <c r="R19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s">
         <v>5</v>
       </c>
       <c r="T19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U19" t="s">
         <v>5</v>
@@ -3577,35 +3903,35 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
         <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N20" t="s">
         <v>5</v>
@@ -3620,10 +3946,10 @@
         <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T20" t="s">
         <v>5</v>
@@ -3637,40 +3963,40 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s">
         <v>44</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
         <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N21" t="s">
         <v>5</v>
@@ -3685,7 +4011,7 @@
         <v>15</v>
       </c>
       <c r="R21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s">
         <v>43</v>
@@ -3708,34 +4034,34 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
         <v>74</v>
       </c>
-      <c r="E22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N22" t="s">
         <v>5</v>
@@ -3750,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="R22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s">
         <v>5</v>
@@ -3773,25 +4099,25 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
         <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23" t="s">
         <v>40</v>
@@ -3801,7 +4127,7 @@
       </c>
       <c r="L23" s="11"/>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N23" t="s">
         <v>5</v>
@@ -3816,7 +4142,7 @@
         <v>5</v>
       </c>
       <c r="R23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s">
         <v>12</v>
@@ -3839,25 +4165,25 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
         <v>43</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s">
         <v>40</v>
@@ -3867,7 +4193,7 @@
       </c>
       <c r="L24" s="11"/>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N24" t="s">
         <v>5</v>
@@ -3882,10 +4208,10 @@
         <v>5</v>
       </c>
       <c r="R24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T24" t="s">
         <v>5</v>
@@ -3905,25 +4231,25 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
         <v>44</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
         <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s">
         <v>40</v>
@@ -3933,7 +4259,7 @@
       </c>
       <c r="L25" s="11"/>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N25" t="s">
         <v>5</v>
@@ -3948,10 +4274,10 @@
         <v>5</v>
       </c>
       <c r="R25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T25" t="s">
         <v>5</v>
@@ -3971,25 +4297,25 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="J26" t="s">
         <v>40</v>
@@ -3999,7 +4325,7 @@
       </c>
       <c r="L26" s="11"/>
       <c r="M26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N26" t="s">
         <v>5</v>
@@ -4014,7 +4340,7 @@
         <v>5</v>
       </c>
       <c r="R26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s">
         <v>12</v>
@@ -4037,25 +4363,25 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s">
         <v>40</v>
@@ -4065,7 +4391,7 @@
       </c>
       <c r="L27" s="11"/>
       <c r="M27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N27" t="s">
         <v>5</v>
@@ -4083,7 +4409,7 @@
         <v>5</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T27" t="s">
         <v>5</v>
@@ -4097,41 +4423,41 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N28" t="s">
         <v>5</v>
@@ -4146,13 +4472,13 @@
         <v>5</v>
       </c>
       <c r="R28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S28" t="s">
         <v>12</v>
       </c>
       <c r="T28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U28" t="s">
         <v>15</v>
@@ -4163,64 +4489,64 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s">
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T29" t="s">
         <v>43</v>
       </c>
       <c r="U29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V29" t="s">
         <v>8</v>
@@ -4231,13 +4557,13 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>12</v>
@@ -4246,22 +4572,22 @@
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s">
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N30" t="s">
         <v>5</v>
@@ -4279,7 +4605,7 @@
         <v>5</v>
       </c>
       <c r="S30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T30" t="s">
         <v>5</v>
@@ -4302,10 +4628,10 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>12</v>
@@ -4314,22 +4640,22 @@
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N31" t="s">
         <v>5</v>
@@ -4347,7 +4673,7 @@
         <v>5</v>
       </c>
       <c r="S31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T31" t="s">
         <v>5</v>
@@ -4367,13 +4693,13 @@
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>12</v>
@@ -4382,22 +4708,22 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N32" t="s">
         <v>5</v>
@@ -4415,7 +4741,7 @@
         <v>5</v>
       </c>
       <c r="S32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T32" t="s">
         <v>5</v>
@@ -4438,10 +4764,10 @@
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>12</v>
@@ -4450,22 +4776,22 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s">
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N33" t="s">
         <v>12</v>
@@ -4483,7 +4809,7 @@
         <v>5</v>
       </c>
       <c r="S33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T33" t="s">
         <v>5</v>
@@ -4516,116 +4842,572 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="34"/>
+      <c r="B3" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="34"/>
+      <c r="B12" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
+      <c r="B21" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A23"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/images/20200101/运维生命周期.xlsx
+++ b/images/20200101/运维生命周期.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="资源生命周期" sheetId="1" r:id="rId3"/>
     <sheet name="应用生命周期" sheetId="5" r:id="rId4"/>
     <sheet name="运营" sheetId="4" r:id="rId5"/>
+    <sheet name="交付场景" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="251">
   <si>
     <t>使用频次</t>
   </si>
@@ -1624,13 +1625,119 @@
   </si>
   <si>
     <t>代码扫描</t>
+  </si>
+  <si>
+    <t>①需求</t>
+    <rPh sb="1" eb="2">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>②技术方案</t>
+    <rPh sb="1" eb="2">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>③编排</t>
+    <rPh sb="1" eb="2">
+      <t>bian'pai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>④审批</t>
+    <rPh sb="1" eb="2">
+      <t>shen'pi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤执行</t>
+    <rPh sb="1" eb="2">
+      <t>zhi'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑥检查</t>
+    <rPh sb="1" eb="2">
+      <t>jian'cha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑦需求验收</t>
+    <rPh sb="1" eb="2">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan'shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯手工</t>
+    <rPh sb="0" eb="1">
+      <t>chun</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shou'gong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台化ToM</t>
+    <rPh sb="0" eb="1">
+      <t>pong'tai'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台化ToC</t>
+    <rPh sb="0" eb="1">
+      <t>pong'tai'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付场景的能力演进</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>neng'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yan'jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1746,8 +1853,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1794,6 +1910,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1947,7 +2075,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1984,6 +2112,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2017,7 +2146,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="87">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2158,6 +2308,1314 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>184300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直线箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="673100"/>
+          <a:ext cx="0" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直线箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="1282700"/>
+          <a:ext cx="0" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>184300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直线箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="1892300"/>
+          <a:ext cx="0" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直线箭头连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="2501900"/>
+          <a:ext cx="0" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>197000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直线箭头连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="3124200"/>
+          <a:ext cx="0" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>184300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直线箭头连接符 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="3721100"/>
+          <a:ext cx="0" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="660400"/>
+          <a:ext cx="415498" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>沟通</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="805349" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文本框 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1244600" y="1282700"/>
+          <a:ext cx="805349" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>工作流</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>声明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文本框 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="1879600"/>
+          <a:ext cx="415498" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>工单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78384</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>618384</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="弧 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2702860" flipH="1" flipV="1">
+          <a:off x="909326" y="3123353"/>
+          <a:ext cx="529115" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="none" w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>471708</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="404854"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="文本框 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="471708" y="3193143"/>
+          <a:ext cx="415498" cy="404854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>终态</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>维持</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直线箭头连接符 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="2946400"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>79829</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="697627" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="文本框 60"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2991758" y="2819400"/>
+          <a:ext cx="697627" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>执行自动化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直线箭头连接符 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="1727200"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直线箭头连接符 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="3556000"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="文本框 63"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4889500" y="1447800"/>
+          <a:ext cx="595035" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>编排转移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="文本框 64"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4889500" y="3276600"/>
+          <a:ext cx="595035" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>检查转移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直线箭头连接符 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6616700" y="3556000"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="697627" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="文本框 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6565900" y="3276600"/>
+          <a:ext cx="697627" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>检查自动化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直线箭头连接符 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="2336800"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="697627" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="文本框 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6540500" y="2057400"/>
+          <a:ext cx="697627" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>审批自动化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直线箭头连接符 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="1117600"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="812145" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="文本框 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="838200"/>
+          <a:ext cx="812145" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>技术选型转移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172357</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>29029</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="文本框 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5615214" y="1625600"/>
+          <a:ext cx="492443" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>模板化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2473,7 +3931,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2482,7 +3940,7 @@
       <c r="D4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2490,31 +3948,31 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="29"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2523,39 +3981,39 @@
       <c r="D7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>117</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
@@ -2570,7 +4028,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2579,7 +4037,7 @@
       <c r="D11" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="25" t="s">
         <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -2587,14 +4045,14 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
@@ -2776,64 +4234,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="M1" s="33" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="M1" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="13" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
       <c r="P3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
       <c r="U3" s="13" t="s">
         <v>106</v>
       </c>
@@ -4844,8 +6302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4891,7 +6349,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>162</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4912,7 +6370,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="22" t="s">
         <v>167</v>
       </c>
@@ -4933,7 +6391,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -4952,7 +6410,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4969,7 +6427,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -4986,7 +6444,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -5003,7 +6461,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -5018,7 +6476,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5033,7 +6491,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>189</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -5052,7 +6510,7 @@
       <c r="G10" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="24" t="s">
         <v>195</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -5060,7 +6518,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="4" t="s">
         <v>197</v>
       </c>
@@ -5074,7 +6532,7 @@
       <c r="G11" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="24" t="s">
         <v>201</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -5082,7 +6540,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="4" t="s">
         <v>203</v>
       </c>
@@ -5102,7 +6560,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>208</v>
@@ -5119,7 +6577,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>211</v>
@@ -5134,7 +6592,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>213</v>
@@ -5147,7 +6605,7 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>214</v>
@@ -5160,7 +6618,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
         <v>215</v>
@@ -5175,7 +6633,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="35" t="s">
         <v>217</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -5196,7 +6654,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="4" t="s">
         <v>222</v>
       </c>
@@ -5211,7 +6669,7 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>224</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -5236,7 +6694,7 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="4" t="s">
         <v>231</v>
       </c>
@@ -5255,7 +6713,7 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -5270,7 +6728,7 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -5414,4 +6872,445 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="36"/>
+      <c r="B7" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="36"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
+      <c r="B10" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="36"/>
+      <c r="B13" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+      <c r="B16" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+      <c r="B19" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B20:B21"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/images/20200101/运维生命周期.xlsx
+++ b/images/20200101/运维生命周期.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="248">
   <si>
     <t>使用频次</t>
   </si>
@@ -1393,9 +1393,6 @@
     <t>析</t>
   </si>
   <si>
-    <t>服(ToC化)</t>
-  </si>
-  <si>
     <t>下线</t>
   </si>
   <si>
@@ -1483,9 +1480,6 @@
     <t>效率</t>
   </si>
   <si>
-    <t>NS命名</t>
-  </si>
-  <si>
     <t>需求沟通</t>
   </si>
   <si>
@@ -1504,9 +1498,6 @@
     <t>下线模块</t>
   </si>
   <si>
-    <t>APP命名</t>
-  </si>
-  <si>
     <t>模块新建</t>
   </si>
   <si>
@@ -1519,9 +1510,6 @@
     <t>用户自助</t>
   </si>
   <si>
-    <t>下线机器</t>
-  </si>
-  <si>
     <t>编排设计</t>
   </si>
   <si>
@@ -1534,22 +1522,13 @@
     <t>库存统计</t>
   </si>
   <si>
-    <t>下线域名</t>
-  </si>
-  <si>
     <t>路由配置</t>
   </si>
   <si>
     <t>机器迁移</t>
   </si>
   <si>
-    <t>下线路由</t>
-  </si>
-  <si>
     <t>服务发现</t>
-  </si>
-  <si>
-    <t>下线LB</t>
   </si>
   <si>
     <t>PaaS申请</t>
@@ -1729,6 +1708,34 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>yan'jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS命名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP信息</t>
+    <rPh sb="3" eb="4">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服(ToC化)</t>
+    <rPh sb="0" eb="1">
+      <t>fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清退资源</t>
+    <rPh sb="0" eb="1">
+      <t>qing'tui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2113,6 +2120,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2146,26 +2169,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3931,7 +3938,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3940,7 +3947,7 @@
       <c r="D4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="31" t="s">
         <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -3948,31 +3955,31 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="29"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="30"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -3981,39 +3988,39 @@
       <c r="D7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="29"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="29"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
@@ -4028,7 +4035,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="34" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -4037,7 +4044,7 @@
       <c r="D11" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -4045,14 +4052,14 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="30"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
@@ -4234,64 +4241,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="M1" s="34" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="M1" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="33" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="13" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
       <c r="U3" s="13" t="s">
         <v>106</v>
       </c>
@@ -6303,7 +6310,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6342,260 +6349,254 @@
         <v>159</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="B2" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="G4" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>188</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="H10" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="24" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="41"/>
+      <c r="B12" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>207</v>
-      </c>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -6605,10 +6606,10 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -6618,123 +6619,123 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="22" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>217</v>
+      <c r="A18" s="41" t="s">
+        <v>210</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>224</v>
+      <c r="A20" s="41" t="s">
+        <v>217</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -6879,7 +6880,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6893,408 +6894,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="41" t="s">
+      <c r="A2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="K4" s="36"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="36"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="36"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="K7" s="36"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="36"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="36"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="K10" s="36"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="36"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="36"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="40" t="s">
+      <c r="I19" s="27"/>
+      <c r="J19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="42" t="s">
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H27" s="1"/>

--- a/images/20200101/运维生命周期.xlsx
+++ b/images/20200101/运维生命周期.xlsx
@@ -18,6 +18,7 @@
     <sheet name="应用生命周期" sheetId="5" r:id="rId4"/>
     <sheet name="运营" sheetId="4" r:id="rId5"/>
     <sheet name="交付场景" sheetId="6" r:id="rId6"/>
+    <sheet name="对账场景" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="272">
   <si>
     <t>使用频次</t>
   </si>
@@ -1381,18 +1382,9 @@
     <t>交付</t>
   </si>
   <si>
-    <t>监</t>
-  </si>
-  <si>
-    <t>管(操作和维护)</t>
-  </si>
-  <si>
     <t>控(流程和自动化)</t>
   </si>
   <si>
-    <t>析</t>
-  </si>
-  <si>
     <t>下线</t>
   </si>
   <si>
@@ -1408,9 +1400,6 @@
     <t>应急处理</t>
   </si>
   <si>
-    <t>故障管理</t>
-  </si>
-  <si>
     <t>部署架构</t>
   </si>
   <si>
@@ -1432,9 +1421,6 @@
     <t>预案管理</t>
   </si>
   <si>
-    <t>容灾切换, 故障自愈</t>
-  </si>
-  <si>
     <t>变更度量</t>
   </si>
   <si>
@@ -1547,9 +1533,6 @@
   </si>
   <si>
     <t>IaaS选型</t>
-  </si>
-  <si>
-    <t>闲置监控</t>
   </si>
   <si>
     <t>预算管理</t>
@@ -1723,19 +1706,297 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>服(ToC化)</t>
-    <rPh sb="0" eb="1">
-      <t>fu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>清退资源</t>
     <rPh sb="0" eb="1">
       <t>qing'tui</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监(稳定性)</t>
+    <rPh sb="2" eb="3">
+      <t>wen'ding'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管(操作和维护)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>析(度量，标准化、成本等)</t>
+    <rPh sb="2" eb="3">
+      <t>du'liang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao'zhun'hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cheng'ben</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景(ToC化)</t>
+    <rPh sb="0" eb="1">
+      <t>chang'jing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云架构</t>
+    <rPh sb="0" eb="1">
+      <t>duo'uyn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'gou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云边架构</t>
+    <rPh sb="0" eb="1">
+      <t>yun'bian'jia'gou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerLess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下线依赖</t>
+    <rPh sb="0" eb="1">
+      <t>xia'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'lai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容灾切换, 故障自愈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>纯手工</t>
+    <rPh sb="0" eb="1">
+      <t>chun'shou'gong</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台化-ToM</t>
+    <rPh sb="0" eb="1">
+      <t>ping'tai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台化-ToC</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化</t>
+    <rPh sb="0" eb="1">
+      <t>zi'dong'hua</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>云消费</t>
+    <rPh sb="0" eb="1">
+      <t>yun</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiao'fei</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODS</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>①云账单</t>
+    <rPh sb="1" eb="2">
+      <t>yun'zhang'dan</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <rPh sb="0" eb="1">
+      <t>ping'tai</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWD</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>②账单底单</t>
+    <rPh sb="1" eb="2">
+      <t>zhang'dan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>di'dan</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWS</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>③多维账单</t>
+    <rPh sb="1" eb="2">
+      <t>duo'wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang'dan</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>④运营报表</t>
+    <rPh sb="1" eb="2">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'bia</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CXO决策</t>
+    <rPh sb="3" eb="4">
+      <t>jue'ce</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>对账场景能力演进</t>
+    <rPh sb="0" eb="1">
+      <t>dui'zhang'chang'jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>neng'li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan'jin</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义聚合主要是提炼数字语义，如拍搜超预算100万是什么原因、机器环比增加200万是什么原因</t>
+    <rPh sb="0" eb="1">
+      <t>yu'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju'he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'yao'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti'lian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu'zi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu'yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>pai'sou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chao'yu'suan</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shen'me</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yuan'yin</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ji'qi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>huan'bi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shi'shen'em</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>yuan'yin</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束: 云账单缺少技术性规范，短期人工预处理无法消除，长期随着云厂商能力迭代、会逐步收敛
+约束: Excel是平台能力的必要补充，因为人工修数、取数、离线做账的需求无法消除，也因为BI平台做不到全维度组合分析。
+         把Excel当做平台能力的一部分，避免技术洁癖
+认知: Excel是最灵活的数字处理工具，你终将从Excel中来、到Excel中去</t>
+    <rPh sb="46" eb="47">
+      <t>yue'shu</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ye'yin'wei</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>ji'shu'ren</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ren'zhi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1744,7 +2005,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1869,8 +2130,88 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA5A5A5"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC9C9C9"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1929,6 +2270,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1993,7 +2352,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2081,8 +2440,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2136,6 +2553,41 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2175,8 +2627,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="145">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2221,6 +2682,35 @@
     <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2264,6 +2754,35 @@
     <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3626,6 +4145,1613 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180671</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直线箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="901700" y="673100"/>
+          <a:ext cx="0" cy="320371"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="E7E6E6">
+              <a:lumMod val="75000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180671</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直线箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="901700" y="1282700"/>
+          <a:ext cx="0" cy="320371"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="E7E6E6">
+              <a:lumMod val="75000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180671</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直线箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="901700" y="1892300"/>
+          <a:ext cx="0" cy="320371"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="E7E6E6">
+              <a:lumMod val="75000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180671</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直线箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="901700" y="2501900"/>
+          <a:ext cx="0" cy="320371"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="E7E6E6">
+              <a:lumMod val="75000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>480786</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>72570</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="530915" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="文本框 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="937986" y="1291770"/>
+          <a:ext cx="530915" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>预处理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>498928</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="356060" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="文本框 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="956128" y="1910443"/>
+          <a:ext cx="356060" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>ETL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+            <a:ea typeface="DengXian" charset="-122"/>
+            <a:cs typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>471715</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="文本框 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="928915" y="682171"/>
+          <a:ext cx="415498" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>生产</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>480786</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="文本框 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="937986" y="2510971"/>
+          <a:ext cx="415498" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>汇聚</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>189743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直线箭头连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="892629" y="3120572"/>
+          <a:ext cx="0" cy="320371"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="E7E6E6">
+              <a:lumMod val="75000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>471714</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="文本框 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="928914" y="3129643"/>
+          <a:ext cx="415498" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>消费</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85576</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>661576</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112485</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直线箭头连接符 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2580219" y="1709056"/>
+          <a:ext cx="576000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="70AD47"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>52919</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="文本框 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2547562" y="1442357"/>
+          <a:ext cx="595035" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>账单入库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>410333</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>410333</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直线箭头连接符 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3730476" y="1841501"/>
+          <a:ext cx="0" cy="316800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="70AD47"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>395818</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61684</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="344518" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="文本框 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3715961" y="1857827"/>
+          <a:ext cx="344518" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>ETL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="70AD47"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+            <a:ea typeface="DengXian" charset="-122"/>
+            <a:cs typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>199572</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="文本框 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4345215" y="2041071"/>
+          <a:ext cx="595035" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>离线做账</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>680358</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112485</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直线箭头连接符 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5912758" y="1128485"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="70AD47"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>39914</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="697627" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="文本框 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5836557" y="834572"/>
+          <a:ext cx="697627" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>账单接口化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>105232</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676732</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112485</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直线箭头连接符 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5909132" y="2957285"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="70AD47"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>72575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="617220" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="文本框 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876475" y="2686957"/>
+          <a:ext cx="617220" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>语义聚合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>417590</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>417590</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169844</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直线箭头连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5388733" y="2447473"/>
+          <a:ext cx="0" cy="316800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="70AD47"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412145</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68942</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="481670" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="文本框 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5383288" y="2463799"/>
+          <a:ext cx="481670" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>BI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>分析</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426662</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426662</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169844</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直线箭头连接符 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5397805" y="3046187"/>
+          <a:ext cx="0" cy="316800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412147</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68942</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="文本框 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5383290" y="3062513"/>
+          <a:ext cx="595035" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>人工取数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>223155</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>799155</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直线箭头连接符 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4368798" y="2298699"/>
+          <a:ext cx="576000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99785</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="文本框 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4336141" y="2295071"/>
+          <a:ext cx="595035" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>人工修数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>424848</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>424848</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>168030</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直线箭头连接符 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2093991" y="1248230"/>
+          <a:ext cx="0" cy="316800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>410333</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="文本框 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2079476" y="1264556"/>
+          <a:ext cx="492443" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+              <a:ea typeface="DengXian" charset="-122"/>
+              <a:cs typeface=""/>
+            </a:rPr>
+            <a:t>预处理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -3938,7 +6064,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="51" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3947,7 +6073,7 @@
       <c r="D4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="48" t="s">
         <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -3955,31 +6081,31 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="35"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="51" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -3988,39 +6114,39 @@
       <c r="D7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="48" t="s">
         <v>117</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="35"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="35"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
@@ -4035,7 +6161,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="51" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -4044,7 +6170,7 @@
       <c r="D11" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="48" t="s">
         <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -4052,14 +6178,14 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="36"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
@@ -4219,7 +6345,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4241,64 +6367,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="M1" s="40" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="M1" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="13" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
       <c r="P3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
       <c r="U3" s="13" t="s">
         <v>106</v>
       </c>
@@ -6307,10 +8433,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6318,12 +8444,12 @@
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -6337,242 +8463,244 @@
         <v>155</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="I1" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="B2" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>188</v>
+      <c r="A10" s="58" t="s">
+        <v>183</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="58"/>
+      <c r="B11" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>247</v>
+        <v>192</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -6580,10 +8708,10 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -6593,10 +8721,10 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -6606,10 +8734,10 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -6619,127 +8747,140 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="22" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
-        <v>210</v>
+      <c r="A18" s="58" t="s">
+        <v>205</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6759,7 +8900,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6880,7 +9021,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6910,15 +9051,15 @@
       <c r="A2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="29" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="29" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="29" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="29" t="s">
@@ -6942,29 +9083,29 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="B4" s="30" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
-      <c r="B5" s="43"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -6977,7 +9118,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -6991,29 +9132,29 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="30" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="25"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -7026,7 +9167,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="25"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -7040,29 +9181,29 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="30" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="25"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -7075,7 +9216,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="25"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -7089,19 +9230,19 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="28" t="s">
@@ -7111,7 +9252,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
-      <c r="B14" s="43"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="25"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
@@ -7124,7 +9265,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
-      <c r="B15" s="43"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="25"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -7138,11 +9279,11 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
       <c r="B16" s="30" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="28" t="s">
@@ -7160,7 +9301,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
-      <c r="B17" s="43"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="25"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -7173,7 +9314,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="25"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -7187,19 +9328,19 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
       <c r="B19" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="28" t="s">
@@ -7209,7 +9350,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
-      <c r="B20" s="43"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="25"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -7222,7 +9363,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
-      <c r="B21" s="43"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="25"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -7236,23 +9377,23 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
       <c r="B22" s="30" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K22" s="25"/>
     </row>
@@ -7274,11 +9415,11 @@
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="E24" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
@@ -7314,4 +9455,473 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="47"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="47"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="43"/>
+      <c r="B29" s="41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B21:K25"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/images/20200101/运维生命周期.xlsx
+++ b/images/20200101/运维生命周期.xlsx
@@ -3290,7 +3290,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1270000" y="1879600"/>
+          <a:off x="1270000" y="2046514"/>
           <a:ext cx="415498" cy="248594"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9021,7 +9021,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
